--- a/Team-Data/2012-13/3-4-2012-13.xlsx
+++ b/Team-Data/2012-13/3-4-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,10 +751,10 @@
         <v>37.4</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>9</v>
@@ -696,67 +763,67 @@
         <v>23.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
         <v>13.7</v>
       </c>
       <c r="P2" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA2" t="n">
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -774,16 +841,16 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -798,25 +865,25 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -950,13 +1017,13 @@
         <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>20</v>
@@ -983,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
@@ -992,10 +1059,10 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>0.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1141,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
@@ -1150,7 +1217,7 @@
         <v>21</v>
       </c>
       <c r="AR4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1165,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1174,13 +1241,13 @@
         <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -1212,67 +1279,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="n">
-        <v>0.217</v>
+        <v>0.22</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="J5" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O5" t="n">
         <v>19.1</v>
       </c>
       <c r="P5" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T5" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U5" t="n">
         <v>18.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y5" t="n">
         <v>7.5</v>
@@ -1281,16 +1348,16 @@
         <v>19.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,25 +1369,25 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1332,22 +1399,22 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
         <v>27</v>
       </c>
       <c r="AT5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1502,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
         <v>6</v>
@@ -1532,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,10 +1661,10 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1615,19 +1682,19 @@
         <v>22.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R7" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T7" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
@@ -1645,7 +1712,7 @@
         <v>21.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB7" t="n">
         <v>97.59999999999999</v>
@@ -1654,13 +1721,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,19 +1736,19 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN7" t="n">
         <v>19</v>
@@ -1696,37 +1763,37 @@
         <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1854,10 +1921,10 @@
         <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1893,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="AW8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
@@ -1902,13 +1969,13 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.639</v>
+        <v>0.633</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J9" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N9" t="n">
         <v>0.339</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
         <v>0.6899999999999999</v>
@@ -2009,19 +2076,19 @@
         <v>20.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB9" t="n">
         <v>105.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2039,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>17</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -2212,16 +2279,16 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2242,22 +2309,22 @@
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX10" t="n">
         <v>12</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
         <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
@@ -2334,28 +2401,28 @@
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.395</v>
+        <v>0.394</v>
       </c>
       <c r="O11" t="n">
         <v>17.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
         <v>0.798</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S11" t="n">
         <v>33.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
@@ -2370,22 +2437,22 @@
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2394,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2403,22 +2470,22 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2433,13 +2500,13 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
         <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2451,10 +2518,10 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -2567,16 +2634,16 @@
         <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG12" t="n">
         <v>14</v>
       </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2606,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2815,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2949,7 +3016,7 @@
         <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2967,7 +3034,7 @@
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>12</v>
@@ -2982,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>5</v>
@@ -3179,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3307,10 +3374,10 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>22</v>
@@ -3325,7 +3392,7 @@
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
@@ -3420,13 +3487,13 @@
         <v>0.496</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M17" t="n">
         <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="O17" t="n">
         <v>17.3</v>
@@ -3435,25 +3502,25 @@
         <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
         <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="U17" t="n">
         <v>22.6</v>
       </c>
       <c r="V17" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="W17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X17" t="n">
         <v>5</v>
@@ -3462,19 +3529,19 @@
         <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>2</v>
@@ -3504,10 +3571,10 @@
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>14</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="n">
         <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>0.517</v>
+        <v>0.509</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J18" t="n">
-        <v>87.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.735</v>
@@ -3629,13 +3696,13 @@
         <v>43.8</v>
       </c>
       <c r="U18" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V18" t="n">
         <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>7.4</v>
@@ -3644,31 +3711,31 @@
         <v>4.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA18" t="n">
         <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>8</v>
@@ -3680,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
@@ -3692,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>23</v>
@@ -3713,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,10 +3845,10 @@
         <v>35.4</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>5.3</v>
@@ -3790,34 +3857,34 @@
         <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.297</v>
+        <v>0.298</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R19" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T19" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
@@ -3829,13 +3896,13 @@
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
@@ -3856,10 +3923,10 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>4</v>
@@ -3886,31 +3953,31 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
         <v>21</v>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>0.344</v>
+        <v>0.35</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3978,28 +4045,28 @@
         <v>15</v>
       </c>
       <c r="P20" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="Q20" t="n">
         <v>0.769</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S20" t="n">
         <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
         <v>5.6</v>
@@ -4014,25 +4081,25 @@
         <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC20" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>21</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
@@ -4056,13 +4123,13 @@
         <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
         <v>24</v>
@@ -4083,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
         <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>0.632</v>
+        <v>0.625</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,7 +4209,7 @@
         <v>36.4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K21" t="n">
         <v>0.442</v>
@@ -4163,22 +4230,22 @@
         <v>21.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V21" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W21" t="n">
         <v>8.1</v>
@@ -4223,7 +4290,7 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>19</v>
@@ -4262,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>44</v>
       </c>
       <c r="G23" t="n">
-        <v>0.279</v>
+        <v>0.267</v>
       </c>
       <c r="H23" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K23" t="n">
         <v>0.453</v>
@@ -4527,7 +4594,7 @@
         <v>16.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
@@ -4536,13 +4603,13 @@
         <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
         <v>23.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -4551,22 +4618,22 @@
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z23" t="n">
         <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4593,7 +4660,7 @@
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN23" t="n">
         <v>28</v>
@@ -4614,13 +4681,13 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4805,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4966,7 +5033,7 @@
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>19</v>
@@ -4984,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
         <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.475</v>
+        <v>0.466</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
         <v>82.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.443</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
         <v>23.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O26" t="n">
         <v>16.3</v>
@@ -5073,7 +5140,7 @@
         <v>21</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
         <v>11.3</v>
@@ -5085,10 +5152,10 @@
         <v>41.7</v>
       </c>
       <c r="U26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V26" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
@@ -5103,16 +5170,16 @@
         <v>18.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,16 +5191,16 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,10 +5209,10 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>23</v>
@@ -5166,13 +5233,13 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,7 +5251,7 @@
         <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -5300,10 +5367,10 @@
         <v>23</v>
       </c>
       <c r="AF27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG27" t="n">
         <v>26</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
@@ -5348,10 +5415,10 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -5506,13 +5573,13 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5524,13 +5591,13 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="n">
-        <v>0.377</v>
+        <v>0.383</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5598,7 +5665,7 @@
         <v>36.2</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.441</v>
@@ -5613,25 +5680,25 @@
         <v>0.349</v>
       </c>
       <c r="O29" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P29" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
         <v>29</v>
       </c>
       <c r="T29" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V29" t="n">
         <v>13.2</v>
@@ -5649,16 +5716,16 @@
         <v>22.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>20</v>
@@ -5700,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
         <v>28</v>
@@ -5715,10 +5782,10 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
@@ -5727,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -5762,97 +5829,97 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="n">
         <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.533</v>
+        <v>0.542</v>
       </c>
       <c r="H30" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
         <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>82.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q30" t="n">
         <v>0.766</v>
       </c>
       <c r="R30" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U30" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
         <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
         <v>14</v>
@@ -5861,16 +5928,16 @@
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5882,19 +5949,19 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5906,7 +5973,7 @@
         <v>23</v>
       </c>
       <c r="AZ30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6040,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6079,10 +6146,10 @@
         <v>28</v>
       </c>
       <c r="AW31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-4-2012-13</t>
+          <t>2013-03-04</t>
         </is>
       </c>
     </row>
